--- a/Escherichia coli/Cellular Component - cell part/uniprot_report.xlsx
+++ b/Escherichia coli/Cellular Component - cell part/uniprot_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
   <si>
     <t>type</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>intrinsic component of membrane</t>
-  </si>
-  <si>
-    <t>periplasmic space</t>
   </si>
   <si>
     <t>plasma membrane</t>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +471,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -497,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -520,7 +517,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -543,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -566,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -589,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -612,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -635,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -649,16 +646,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>0.392156862745098</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -672,16 +669,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>0.4313725490196079</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -695,16 +692,16 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>0.05882352941176471</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -718,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>0.07843137254901961</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -741,16 +738,16 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -764,16 +761,16 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>0.0392156862745098</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -787,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -819,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -833,16 +830,16 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E18">
-        <v>0.2210526315789474</v>
+        <v>0.2119815668202765</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -856,16 +853,16 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="E19">
-        <v>0.5157894736842106</v>
+        <v>0.4907834101382488</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -879,16 +876,16 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>0.06315789473684211</v>
+        <v>0.03917050691244239</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -902,16 +899,16 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E21">
-        <v>0.07368421052631578</v>
+        <v>0.1705069124423963</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -925,16 +922,16 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.02105263157894737</v>
+        <v>0.002304147465437788</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -948,16 +945,16 @@
         <v>6</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>0.05263157894736842</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -971,16 +968,16 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -994,200 +991,16 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>92</v>
-      </c>
-      <c r="E26">
-        <v>0.2119815668202765</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>213</v>
-      </c>
-      <c r="E27">
-        <v>0.4907834101382488</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>17</v>
-      </c>
-      <c r="E28">
-        <v>0.03917050691244239</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>74</v>
-      </c>
-      <c r="E29">
-        <v>0.1705069124423963</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>0.01382488479262673</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
